--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_monte_carlo_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_monte_carlo_1.xlsx
@@ -4833,76 +4833,76 @@
         <v>1.771522592038193</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28.9294366757841</v>
+        <v>28.94315023535421</v>
       </c>
       <c r="AK25" t="n">
-        <v>4.723703293293228</v>
+        <v>4.723703293293227</v>
       </c>
       <c r="AL25" t="n">
         <v>12.18222432125471</v>
       </c>
       <c r="AM25" t="n">
-        <v>278.1746198074303</v>
+        <v>278.1746198077548</v>
       </c>
       <c r="AN25" t="n">
-        <v>337.9627664635722</v>
+        <v>337.9627664635721</v>
       </c>
       <c r="AO25" t="n">
-        <v>333.8061744618097</v>
+        <v>333.6413622623733</v>
       </c>
       <c r="AP25" t="n">
         <v>1946698.052062165</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-3.969047313034935e-10</v>
+        <v>-3.96882526843001e-10</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.003982153255307</v>
+        <v>1.003982153254953</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.90530713134026</v>
+        <v>1.905307131339587</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.684865497985292</v>
+        <v>3.684865497983992</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.1606371445208492</v>
+        <v>0.1606371445207925</v>
       </c>
       <c r="AV25" t="n">
-        <v>0.06435525602366521</v>
+        <v>0.0643552560236425</v>
       </c>
       <c r="AW25" t="n">
-        <v>1.069228128094704</v>
+        <v>1.069228130520841</v>
       </c>
       <c r="AX25" t="n">
         <v>0.5461854502806434</v>
       </c>
       <c r="AY25" t="n">
-        <v>-1.025323615166501</v>
+        <v>-1.025323615166506</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23.68867151668638</v>
+        <v>23.68867151587631</v>
       </c>
       <c r="BA25" t="n">
-        <v>9.941474719232872</v>
+        <v>9.941474719232929</v>
       </c>
       <c r="BB25" t="n">
-        <v>4.504729537381309</v>
+        <v>4.504729537292974</v>
       </c>
       <c r="BC25" t="n">
-        <v>-0.01227767508959898</v>
+        <v>-0.01227767508873512</v>
       </c>
       <c r="BD25" t="n">
-        <v>-0.02329995790128647</v>
+        <v>-0.02329995789964707</v>
       </c>
       <c r="BE25" t="n">
-        <v>-0.04506213699760067</v>
+        <v>-0.04506213699443007</v>
       </c>
       <c r="BF25" t="n">
-        <v>-0.001964428014335837</v>
+        <v>-0.001964428014197619</v>
       </c>
       <c r="BG25" t="n">
-        <v>-0.0007869989732432949</v>
+        <v>-0.0007869989731879211</v>
       </c>
     </row>
     <row r="26">
@@ -11098,7 +11098,7 @@
         <v>1.823090664530222</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34.17617371864652</v>
+        <v>34.19762229316559</v>
       </c>
       <c r="AK60" t="n">
         <v>5.816002126086616</v>
@@ -11107,67 +11107,67 @@
         <v>10.52682708327531</v>
       </c>
       <c r="AM60" t="n">
-        <v>309.8674344767822</v>
+        <v>309.8674344762687</v>
       </c>
       <c r="AN60" t="n">
         <v>353.3578998591625</v>
       </c>
       <c r="AO60" t="n">
-        <v>277.6301336608689</v>
+        <v>277.4653214613504</v>
       </c>
       <c r="AP60" t="n">
         <v>1376297.794811317</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-2.801758824944045e-10</v>
+        <v>-2.802091891851433e-10</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.9650648240527075</v>
+        <v>0.9650648240532199</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.831451769846026</v>
+        <v>1.831451769846998</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.54202917047945</v>
+        <v>3.542029170481331</v>
       </c>
       <c r="AU60" t="n">
-        <v>0.1544103718484332</v>
+        <v>0.1544103718485152</v>
       </c>
       <c r="AV60" t="n">
-        <v>0.06186065522177856</v>
+        <v>0.0618606552218114</v>
       </c>
       <c r="AW60" t="n">
-        <v>1.960585783764252</v>
+        <v>1.960585784983039</v>
       </c>
       <c r="AX60" t="n">
         <v>0.5697121507862768</v>
       </c>
       <c r="AY60" t="n">
-        <v>-0.9944541050628519</v>
+        <v>-0.9944541050628484</v>
       </c>
       <c r="AZ60" t="n">
-        <v>23.75550230001846</v>
+        <v>23.75550230053051</v>
       </c>
       <c r="BA60" t="n">
-        <v>9.94970656034593</v>
+        <v>9.949706560345874</v>
       </c>
       <c r="BB60" t="n">
-        <v>4.505492828789841</v>
+        <v>4.505492828839465</v>
       </c>
       <c r="BC60" t="n">
-        <v>-0.01293756390305123</v>
+        <v>-0.01293756390356227</v>
       </c>
       <c r="BD60" t="n">
-        <v>-0.02455226189701547</v>
+        <v>-0.02455226189798529</v>
       </c>
       <c r="BE60" t="n">
-        <v>-0.04748409391517378</v>
+        <v>-0.04748409391704941</v>
       </c>
       <c r="BF60" t="n">
-        <v>-0.002070010224488197</v>
+        <v>-0.002070010224569963</v>
       </c>
       <c r="BG60" t="n">
-        <v>-0.0008292978461855839</v>
+        <v>-0.0008292978462183413</v>
       </c>
     </row>
     <row r="61">
@@ -12351,76 +12351,76 @@
         <v>1.740128872694422</v>
       </c>
       <c r="AJ67" t="n">
-        <v>30.24414990027383</v>
+        <v>30.25734636149561</v>
       </c>
       <c r="AK67" t="n">
-        <v>4.396417786506382</v>
+        <v>4.396417786506383</v>
       </c>
       <c r="AL67" t="n">
-        <v>13.51733352451711</v>
+        <v>13.51733352451712</v>
       </c>
       <c r="AM67" t="n">
-        <v>239.3145028933788</v>
+        <v>239.3145028934038</v>
       </c>
       <c r="AN67" t="n">
-        <v>325.4277828540563</v>
+        <v>325.4277828540562</v>
       </c>
       <c r="AO67" t="n">
-        <v>311.7291766771766</v>
+        <v>311.5643644777082</v>
       </c>
       <c r="AP67" t="n">
-        <v>1991717.854542147</v>
+        <v>1991717.854542146</v>
       </c>
       <c r="AQ67" t="n">
-        <v>-4.077738147145737e-10</v>
+        <v>-4.0787373478679e-10</v>
       </c>
       <c r="AR67" t="n">
-        <v>0.9986671597301305</v>
+        <v>0.9986671597301022</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.895220602377855</v>
+        <v>1.895220602377801</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.665358142999512</v>
+        <v>3.665358142999408</v>
       </c>
       <c r="AU67" t="n">
-        <v>0.1597867455568209</v>
+        <v>0.1597867455568164</v>
       </c>
       <c r="AV67" t="n">
-        <v>0.06401456493870138</v>
+        <v>0.06401456493869956</v>
       </c>
       <c r="AW67" t="n">
-        <v>1.646048403691999</v>
+        <v>1.6460484027894</v>
       </c>
       <c r="AX67" t="n">
         <v>0.5988438886673384</v>
       </c>
       <c r="AY67" t="n">
-        <v>-1.009039474500156</v>
+        <v>-1.009039474500167</v>
       </c>
       <c r="AZ67" t="n">
-        <v>22.82564373335487</v>
+        <v>22.82564373201058</v>
       </c>
       <c r="BA67" t="n">
         <v>9.985491805874972</v>
       </c>
       <c r="BB67" t="n">
-        <v>5.029540860241241</v>
+        <v>5.02954086005775</v>
       </c>
       <c r="BC67" t="n">
-        <v>-0.01560136954796365</v>
+        <v>-0.0156013695465399</v>
       </c>
       <c r="BD67" t="n">
-        <v>-0.02960749905964801</v>
+        <v>-0.02960749905694609</v>
       </c>
       <c r="BE67" t="n">
-        <v>-0.05726092658341359</v>
+        <v>-0.05726092657818807</v>
       </c>
       <c r="BF67" t="n">
-        <v>-0.002496219127674184</v>
+        <v>-0.002496219127446384</v>
       </c>
       <c r="BG67" t="n">
-        <v>-0.00100004778802447</v>
+        <v>-0.001000047787933208</v>
       </c>
     </row>
     <row r="68">
@@ -12530,7 +12530,7 @@
         <v>1.316547312145139</v>
       </c>
       <c r="AJ68" t="n">
-        <v>30.79438818967822</v>
+        <v>30.80832008282736</v>
       </c>
       <c r="AK68" t="n">
         <v>5.058589056586742</v>
@@ -12539,67 +12539,67 @@
         <v>11.87998261016897</v>
       </c>
       <c r="AM68" t="n">
-        <v>282.3223740674785</v>
+        <v>282.3223740666317</v>
       </c>
       <c r="AN68" t="n">
-        <v>340.3271786895116</v>
+        <v>340.3271786895115</v>
       </c>
       <c r="AO68" t="n">
-        <v>340.2853444125256</v>
+        <v>340.1205322130059</v>
       </c>
       <c r="AP68" t="n">
         <v>2215243.981408048</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-4.206524018002256e-10</v>
+        <v>-4.206190951094868e-10</v>
       </c>
       <c r="AR68" t="n">
-        <v>0.980777932882165</v>
+        <v>0.980777932883053</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.861271322127128</v>
+        <v>1.861271322128814</v>
       </c>
       <c r="AT68" t="n">
-        <v>3.599700208160766</v>
+        <v>3.599700208164025</v>
       </c>
       <c r="AU68" t="n">
-        <v>0.1569244692611464</v>
+        <v>0.1569244692612885</v>
       </c>
       <c r="AV68" t="n">
-        <v>0.06286786549774678</v>
+        <v>0.06286786549780371</v>
       </c>
       <c r="AW68" t="n">
-        <v>1.694456583481056</v>
+        <v>1.694285970473391</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.5675017446628283</v>
+        <v>0.5675017446628301</v>
       </c>
       <c r="AY68" t="n">
-        <v>-1.025896916079404</v>
+        <v>-1.0258969160794</v>
       </c>
       <c r="AZ68" t="n">
-        <v>23.57443047691862</v>
+        <v>23.57443047737206</v>
       </c>
       <c r="BA68" t="n">
-        <v>9.903418528733368</v>
+        <v>9.903418528733425</v>
       </c>
       <c r="BB68" t="n">
-        <v>5.284360725795864</v>
+        <v>5.286706878548785</v>
       </c>
       <c r="BC68" t="n">
-        <v>-0.01392319275254139</v>
+        <v>-0.01392319275303411</v>
       </c>
       <c r="BD68" t="n">
-        <v>-0.02642273904613542</v>
+        <v>-0.02642273904707048</v>
       </c>
       <c r="BE68" t="n">
-        <v>-0.05110159820001504</v>
+        <v>-0.05110159820182344</v>
       </c>
       <c r="BF68" t="n">
-        <v>-0.002227710840406623</v>
+        <v>-0.002227710840485457</v>
       </c>
       <c r="BG68" t="n">
-        <v>-0.0008924766554379032</v>
+        <v>-0.0008924766554694864</v>
       </c>
     </row>
     <row r="69">
@@ -13067,76 +13067,76 @@
         <v>1.843512111204241</v>
       </c>
       <c r="AJ71" t="n">
-        <v>27.7145467717309</v>
+        <v>27.74872715839932</v>
       </c>
       <c r="AK71" t="n">
-        <v>8.282910490552773</v>
+        <v>8.282910490552744</v>
       </c>
       <c r="AL71" t="n">
-        <v>6.01934289344285</v>
+        <v>6.023013338329648</v>
       </c>
       <c r="AM71" t="n">
-        <v>414.3141301827271</v>
+        <v>414.2858947330388</v>
       </c>
       <c r="AN71" t="n">
-        <v>395.7258491811953</v>
+        <v>395.7222358252238</v>
       </c>
       <c r="AO71" t="n">
-        <v>326.1373216248809</v>
+        <v>325.8194690636618</v>
       </c>
       <c r="AP71" t="n">
         <v>1845947.334148113</v>
       </c>
       <c r="AQ71" t="n">
-        <v>-3.816846838589072e-09</v>
+        <v>-3.820332938886395e-09</v>
       </c>
       <c r="AR71" t="n">
-        <v>0.9434691908273753</v>
+        <v>0.9434201954264217</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.790468656892651</v>
+        <v>1.790375675870492</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.462767797634175</v>
+        <v>3.462587972263825</v>
       </c>
       <c r="AU71" t="n">
-        <v>0.1509550705323801</v>
+        <v>0.1509472312682275</v>
       </c>
       <c r="AV71" t="n">
-        <v>0.06047637513203476</v>
+        <v>0.06047323452683364</v>
       </c>
       <c r="AW71" t="n">
-        <v>0.7058369870893202</v>
+        <v>0.6881767150764162</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.569232239979959</v>
+        <v>0.5692322399799821</v>
       </c>
       <c r="AY71" t="n">
-        <v>-1.029035489466882</v>
+        <v>-1.032604013842417</v>
       </c>
       <c r="AZ71" t="n">
-        <v>18.53709076851163</v>
+        <v>18.56505886413817</v>
       </c>
       <c r="BA71" t="n">
-        <v>9.952248753775677</v>
+        <v>9.955862834725735</v>
       </c>
       <c r="BB71" t="n">
-        <v>3.458259847100578</v>
+        <v>3.611630143234493</v>
       </c>
       <c r="BC71" t="n">
-        <v>-0.004447836057843157</v>
+        <v>-0.004401092687684072</v>
       </c>
       <c r="BD71" t="n">
-        <v>-0.008440880878771852</v>
+        <v>-0.008352173648052446</v>
       </c>
       <c r="BE71" t="n">
-        <v>-0.01632467029129885</v>
+        <v>-0.01615311043697246</v>
       </c>
       <c r="BF71" t="n">
-        <v>-0.0007116537692549052</v>
+        <v>-0.0007041748300294514</v>
       </c>
       <c r="BG71" t="n">
-        <v>-0.0002851062913077464</v>
+        <v>-0.000282110041280549</v>
       </c>
     </row>
     <row r="72">
@@ -13783,76 +13783,76 @@
         <v>1.459341680506774</v>
       </c>
       <c r="AJ75" t="n">
-        <v>41.80548750395019</v>
+        <v>41.81928767629406</v>
       </c>
       <c r="AK75" t="n">
         <v>7.785595821319591</v>
       </c>
       <c r="AL75" t="n">
-        <v>6.687617618352862</v>
+        <v>6.687617626035028</v>
       </c>
       <c r="AM75" t="n">
-        <v>403.7945220636744</v>
+        <v>403.7945211621743</v>
       </c>
       <c r="AN75" t="n">
-        <v>389.3747477455877</v>
+        <v>389.3747477487996</v>
       </c>
       <c r="AO75" t="n">
-        <v>347.0379382287364</v>
+        <v>346.8733522771143</v>
       </c>
       <c r="AP75" t="n">
         <v>2098071.428044324</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-3.939992776480494e-09</v>
+        <v>-3.939970572020002e-09</v>
       </c>
       <c r="AR75" t="n">
-        <v>0.9349271156963055</v>
+        <v>0.9349271162975844</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.774257933812664</v>
+        <v>1.774257934953741</v>
       </c>
       <c r="AT75" t="n">
-        <v>3.431416246384365</v>
+        <v>3.431416248591209</v>
       </c>
       <c r="AU75" t="n">
-        <v>0.1495883385114089</v>
+        <v>0.1495883386076135</v>
       </c>
       <c r="AV75" t="n">
-        <v>0.05992882811613318</v>
+        <v>0.05992882815467516</v>
       </c>
       <c r="AW75" t="n">
-        <v>2.284881096051095</v>
+        <v>2.284881205436697</v>
       </c>
       <c r="AX75" t="n">
         <v>0.5596291268817595</v>
       </c>
       <c r="AY75" t="n">
-        <v>-1.01398169564281</v>
+        <v>-1.013981703111669</v>
       </c>
       <c r="AZ75" t="n">
-        <v>18.84856243096749</v>
+        <v>18.84856331014885</v>
       </c>
       <c r="BA75" t="n">
-        <v>9.934239921275434</v>
+        <v>9.934239918069238</v>
       </c>
       <c r="BB75" t="n">
-        <v>4.210349824738898</v>
+        <v>4.210348990620105</v>
       </c>
       <c r="BC75" t="n">
-        <v>-0.005859440545347039</v>
+        <v>-0.0058594411327616</v>
       </c>
       <c r="BD75" t="n">
-        <v>-0.01111975329493234</v>
+        <v>-0.01111975440969833</v>
       </c>
       <c r="BE75" t="n">
-        <v>-0.02150561166155997</v>
+        <v>-0.02150561381751826</v>
       </c>
       <c r="BF75" t="n">
-        <v>-0.0009375104872555262</v>
+        <v>-0.0009375105812418561</v>
       </c>
       <c r="BG75" t="n">
-        <v>-0.0003755901389567452</v>
+        <v>-0.0003755901766100186</v>
       </c>
     </row>
     <row r="76">
@@ -13962,76 +13962,76 @@
         <v>1.451807716809732</v>
       </c>
       <c r="AJ76" t="n">
-        <v>18.81741505230902</v>
+        <v>18.83177229469104</v>
       </c>
       <c r="AK76" t="n">
         <v>3.729378455655088</v>
       </c>
       <c r="AL76" t="n">
-        <v>14.12961218598449</v>
+        <v>14.12961218598448</v>
       </c>
       <c r="AM76" t="n">
-        <v>232.5960671024938</v>
+        <v>232.5960671027207</v>
       </c>
       <c r="AN76" t="n">
         <v>319.8562497886087</v>
       </c>
       <c r="AO76" t="n">
-        <v>299.5728187977861</v>
+        <v>299.4080065983749</v>
       </c>
       <c r="AP76" t="n">
         <v>1799384.07419366</v>
       </c>
       <c r="AQ76" t="n">
-        <v>-4.024669486568655e-10</v>
+        <v>-4.025002553476043e-10</v>
       </c>
       <c r="AR76" t="n">
-        <v>1.013196516972664</v>
+        <v>1.013196516972401</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.922793690084873</v>
+        <v>1.922793690084374</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.718684516418921</v>
+        <v>3.718684516417955</v>
       </c>
       <c r="AU76" t="n">
-        <v>0.1621114427156263</v>
+        <v>0.1621114427155841</v>
       </c>
       <c r="AV76" t="n">
-        <v>0.06494589673794778</v>
+        <v>0.0649458967379309</v>
       </c>
       <c r="AW76" t="n">
-        <v>1.759726181052322</v>
+        <v>1.759726180753237</v>
       </c>
       <c r="AX76" t="n">
         <v>0.5501991473742964</v>
       </c>
       <c r="AY76" t="n">
-        <v>-1.005229816753062</v>
+        <v>-1.005229816753063</v>
       </c>
       <c r="AZ76" t="n">
-        <v>23.80998892273348</v>
+        <v>23.80998892286817</v>
       </c>
       <c r="BA76" t="n">
-        <v>9.98635030884617</v>
+        <v>9.986350308846056</v>
       </c>
       <c r="BB76" t="n">
-        <v>5.177759000413062</v>
+        <v>5.177759000428807</v>
       </c>
       <c r="BC76" t="n">
-        <v>-0.01561996465361382</v>
+        <v>-0.01561996465375182</v>
       </c>
       <c r="BD76" t="n">
-        <v>-0.02964278792139562</v>
+        <v>-0.02964278792165751</v>
       </c>
       <c r="BE76" t="n">
-        <v>-0.05732917526992611</v>
+        <v>-0.05732917527043261</v>
       </c>
       <c r="BF76" t="n">
-        <v>-0.002499194344578211</v>
+        <v>-0.002499194344600291</v>
       </c>
       <c r="BG76" t="n">
-        <v>-0.001001239734296646</v>
+        <v>-0.001001239734305492</v>
       </c>
     </row>
     <row r="77">
@@ -14141,34 +14141,34 @@
         <v>1.560523743778205</v>
       </c>
       <c r="AJ77" t="n">
-        <v>37.93390088693143</v>
+        <v>37.95001183627161</v>
       </c>
       <c r="AK77" t="n">
-        <v>7.584915034628479</v>
+        <v>7.584915034628481</v>
       </c>
       <c r="AL77" t="n">
-        <v>5.543532490687514</v>
+        <v>5.543532490687513</v>
       </c>
       <c r="AM77" t="n">
-        <v>444.0728555482251</v>
+        <v>444.0728555482253</v>
       </c>
       <c r="AN77" t="n">
         <v>401.9152921563378</v>
       </c>
       <c r="AO77" t="n">
-        <v>370.6670449094309</v>
+        <v>370.5022327100428</v>
       </c>
       <c r="AP77" t="n">
-        <v>2031806.020347561</v>
+        <v>2031806.02034756</v>
       </c>
       <c r="AQ77" t="n">
-        <v>-7.37042649134878e-09</v>
+        <v>-7.370370980197549e-09</v>
       </c>
       <c r="AR77" t="n">
-        <v>0.9507230977650901</v>
+        <v>0.9507230977650899</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.8042347587837</v>
+        <v>1.804234758783699</v>
       </c>
       <c r="AT77" t="n">
         <v>3.489391449572322</v>
@@ -14177,40 +14177,40 @@
         <v>0.1521156956424144</v>
       </c>
       <c r="AV77" t="n">
-        <v>0.06094135056674228</v>
+        <v>0.06094135056674227</v>
       </c>
       <c r="AW77" t="n">
-        <v>1.625283108987084</v>
+        <v>1.625283109495228</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.507199902212025</v>
+        <v>0.5071999022120233</v>
       </c>
       <c r="AY77" t="n">
-        <v>-1.058240098219618</v>
+        <v>-1.05824009821962</v>
       </c>
       <c r="AZ77" t="n">
-        <v>20.42108772128989</v>
+        <v>20.42108772126551</v>
       </c>
       <c r="BA77" t="n">
-        <v>10.10423505575966</v>
+        <v>10.10423505575989</v>
       </c>
       <c r="BB77" t="n">
-        <v>4.783192557602661</v>
+        <v>4.783192557584414</v>
       </c>
       <c r="BC77" t="n">
-        <v>-0.004176189972619593</v>
+        <v>-0.004176189972598054</v>
       </c>
       <c r="BD77" t="n">
-        <v>-0.007925364520538832</v>
+        <v>-0.007925364520497958</v>
       </c>
       <c r="BE77" t="n">
-        <v>-0.01532766124700706</v>
+        <v>-0.01532766124692801</v>
       </c>
       <c r="BF77" t="n">
-        <v>-0.0006681903956191348</v>
+        <v>-0.0006681903956156887</v>
       </c>
       <c r="BG77" t="n">
-        <v>-0.0002676937772449159</v>
+        <v>-0.0002676937772435353</v>
       </c>
     </row>
     <row r="78">
@@ -15036,76 +15036,76 @@
         <v>1.90054140345521</v>
       </c>
       <c r="AJ82" t="n">
-        <v>36.12330140042631</v>
+        <v>36.13717569219512</v>
       </c>
       <c r="AK82" t="n">
         <v>6.930001124924171</v>
       </c>
       <c r="AL82" t="n">
-        <v>8.31291511627512</v>
+        <v>8.312915116275127</v>
       </c>
       <c r="AM82" t="n">
-        <v>364.0364117575761</v>
+        <v>364.0364117583201</v>
       </c>
       <c r="AN82" t="n">
-        <v>374.5599310549254</v>
+        <v>374.5599310549255</v>
       </c>
       <c r="AO82" t="n">
-        <v>340.1981204997697</v>
+        <v>340.0333083004239</v>
       </c>
       <c r="AP82" t="n">
         <v>1868728.342310633</v>
       </c>
       <c r="AQ82" t="n">
-        <v>-2.930433673498101e-10</v>
+        <v>-2.930877762707951e-10</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.9485701964511678</v>
+        <v>0.9485701964504771</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.800149090315204</v>
+        <v>1.800149090313893</v>
       </c>
       <c r="AT82" t="n">
-        <v>3.481489763524899</v>
+        <v>3.481489763522364</v>
       </c>
       <c r="AU82" t="n">
-        <v>0.1517712314321868</v>
+        <v>0.1517712314320764</v>
       </c>
       <c r="AV82" t="n">
-        <v>0.06080334959251986</v>
+        <v>0.06080334959247559</v>
       </c>
       <c r="AW82" t="n">
-        <v>2.222303770731202</v>
+        <v>2.222303769416591</v>
       </c>
       <c r="AX82" t="n">
-        <v>0.5616443812188905</v>
+        <v>0.5616443812188896</v>
       </c>
       <c r="AY82" t="n">
-        <v>-1.02475675418024</v>
+        <v>-1.024756754180251</v>
       </c>
       <c r="AZ82" t="n">
-        <v>18.36151407789168</v>
+        <v>18.3615140771546</v>
       </c>
       <c r="BA82" t="n">
         <v>9.984116541074286</v>
       </c>
       <c r="BB82" t="n">
-        <v>4.124185273870069</v>
+        <v>4.124185273760304</v>
       </c>
       <c r="BC82" t="n">
-        <v>-0.006111098781427682</v>
+        <v>-0.006111098780743118</v>
       </c>
       <c r="BD82" t="n">
-        <v>-0.01159733771245438</v>
+        <v>-0.01159733771115525</v>
       </c>
       <c r="BE82" t="n">
-        <v>-0.02242926030253495</v>
+        <v>-0.02242926030002243</v>
       </c>
       <c r="BF82" t="n">
-        <v>-0.0009777758050284291</v>
+        <v>-0.0009777758049188988</v>
       </c>
       <c r="BG82" t="n">
-        <v>-0.0003917214318895144</v>
+        <v>-0.0003917214318456339</v>
       </c>
     </row>
     <row r="83">
@@ -18079,76 +18079,76 @@
         <v>1.800647510722467</v>
       </c>
       <c r="AJ99" t="n">
-        <v>27.81162886667557</v>
+        <v>27.82578815105386</v>
       </c>
       <c r="AK99" t="n">
-        <v>4.534265575769926</v>
+        <v>4.534265575769925</v>
       </c>
       <c r="AL99" t="n">
         <v>11.52834433908791</v>
       </c>
       <c r="AM99" t="n">
-        <v>305.503668076376</v>
+        <v>305.5036680768208</v>
       </c>
       <c r="AN99" t="n">
-        <v>344.4808454234868</v>
+        <v>344.4808454234867</v>
       </c>
       <c r="AO99" t="n">
-        <v>339.2944286445809</v>
+        <v>339.1296164451964</v>
       </c>
       <c r="AP99" t="n">
-        <v>1933311.530045059</v>
+        <v>1933311.530045058</v>
       </c>
       <c r="AQ99" t="n">
         <v>-4.049760526925184e-10</v>
       </c>
       <c r="AR99" t="n">
-        <v>1.017454295197718</v>
+        <v>1.017454295197224</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.930873888711468</v>
+        <v>1.930873888710531</v>
       </c>
       <c r="AT99" t="n">
-        <v>3.734311626949423</v>
+        <v>3.73431162694761</v>
       </c>
       <c r="AU99" t="n">
-        <v>0.1627926872316348</v>
+        <v>0.1627926872315558</v>
       </c>
       <c r="AV99" t="n">
-        <v>0.0652188203221737</v>
+        <v>0.06521882032214205</v>
       </c>
       <c r="AW99" t="n">
-        <v>1.136640185103968</v>
+        <v>1.136809990939479</v>
       </c>
       <c r="AX99" t="n">
-        <v>0.4889950728016181</v>
+        <v>0.488995072801619</v>
       </c>
       <c r="AY99" t="n">
-        <v>-1.022683133179671</v>
+        <v>-1.022683133179665</v>
       </c>
       <c r="AZ99" t="n">
-        <v>25.19116435905107</v>
+        <v>25.19116435937309</v>
       </c>
       <c r="BA99" t="n">
-        <v>9.967006277586222</v>
+        <v>9.967006277586336</v>
       </c>
       <c r="BB99" t="n">
-        <v>5.674089606226858</v>
+        <v>5.671743453543513</v>
       </c>
       <c r="BC99" t="n">
-        <v>-0.01065381536999022</v>
+        <v>-0.01065381537031773</v>
       </c>
       <c r="BD99" t="n">
-        <v>-0.02021827811839893</v>
+        <v>-0.02021827811902047</v>
       </c>
       <c r="BE99" t="n">
-        <v>-0.0391021658617066</v>
+        <v>-0.03910216586290866</v>
       </c>
       <c r="BF99" t="n">
-        <v>-0.001704610459198435</v>
+        <v>-0.001704610459250837</v>
       </c>
       <c r="BG99" t="n">
-        <v>-0.0006829095652163729</v>
+        <v>-0.0006829095652373667</v>
       </c>
     </row>
     <row r="100">
